--- a/src/test/resources/getconfig_ia_on_premises.xlsx
+++ b/src/test/resources/getconfig_ia_on_premises.xlsx
@@ -17,17 +17,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1601521033" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1601521033" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1601521033" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1601521033"/>
+      <pm:revision xmlns:pm="smNativeData" day="1602632290" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1602632290" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1602632290" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1602632290"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -528,7 +528,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601521033" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602632290" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -543,7 +543,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601521033" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602632290" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -559,7 +559,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601521033" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602632290" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -576,7 +576,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1601521033" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602632290" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -585,7 +585,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,7 +598,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -609,7 +609,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -620,7 +620,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -631,7 +631,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -642,7 +642,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -653,7 +653,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -664,7 +664,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -675,7 +675,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -686,7 +686,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -697,7 +697,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -708,7 +708,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -719,7 +719,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -730,7 +730,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -741,7 +741,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -752,7 +752,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -763,7 +763,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -774,7 +774,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -785,7 +785,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602632290" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -796,25 +796,8 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1601521033" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -830,7 +813,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033"/>
+          <pm:border xmlns:pm="smNativeData" id="1602632290"/>
         </ext>
       </extLst>
     </border>
@@ -849,7 +832,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -873,7 +856,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033"/>
+          <pm:border xmlns:pm="smNativeData" id="1602632290"/>
         </ext>
       </extLst>
     </border>
@@ -892,7 +875,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -914,7 +897,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -935,7 +918,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -957,7 +940,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -979,7 +962,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1000,7 +983,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1022,7 +1005,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1046,7 +1029,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1070,7 +1053,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1093,7 +1076,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1116,7 +1099,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1138,7 +1121,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1161,7 +1144,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1182,7 +1165,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1203,7 +1186,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1227,7 +1210,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1251,7 +1234,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1274,75 +1257,12 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
+          <pm:border xmlns:pm="smNativeData" id="1602632290">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033">
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1601521033"/>
         </ext>
       </extLst>
     </border>
@@ -1475,10 +1395,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1601521033" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1602632290" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1601521033" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1602632290" count="4">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -4718,7 +4638,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601521033" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1602632290" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4729,16 +4649,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601521033" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601521033" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601521033" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601521033" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1602632290" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1602632290" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602632290" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602632290" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601521033" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602632290" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4752,22 +4672,21 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.500000" customWidth="1" style="0"/>
-    <col min="2" max="2" width="13.045455" customWidth="1" style="0"/>
-    <col min="3" max="9" width="13.527273" customWidth="1" style="0"/>
-    <col min="10" max="10" width="44.245455" customWidth="1" style="0"/>
+    <col min="1" max="1" width="13.045455" customWidth="1" style="0"/>
+    <col min="2" max="8" width="13.527273" customWidth="1" style="0"/>
+    <col min="9" max="9" width="44.245455" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="25" t="s">
         <v>46</v>
       </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
@@ -4775,495 +4694,410 @@
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="24"/>
+      <c r="A2" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="B2" s="24" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="24" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="26" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="27">
-        <f>ROW()-3</f>
-        <v>1</v>
+      <c r="A4" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="18" t="s">
         <v>136</v>
       </c>
+      <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="28">
-        <f>ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
         <v>136</v>
       </c>
+      <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="28">
-        <f>ROW()-3</f>
-        <v>3</v>
+      <c r="A6" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="18" t="s">
         <v>136</v>
       </c>
+      <c r="E6" s="18"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="28">
-        <f>ROW()-3</f>
-        <v>4</v>
-      </c>
-      <c r="B7" s="18"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18" t="s">
+        <v>140</v>
+      </c>
       <c r="C7" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="18" t="s">
         <v>136</v>
       </c>
+      <c r="E7" s="18"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="28">
-        <f>ROW()-3</f>
-        <v>5</v>
+      <c r="A8" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="18" t="s">
         <v>136</v>
       </c>
+      <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="28">
-        <f>ROW()-3</f>
-        <v>6</v>
-      </c>
-      <c r="B9" s="15"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="C9" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="18" t="s">
         <v>136</v>
       </c>
+      <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="28">
-        <f>ROW()-3</f>
-        <v>7</v>
+      <c r="A10" s="18" t="s">
+        <v>145</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="18" t="s">
         <v>136</v>
       </c>
+      <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="28"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="28">
-        <f>ROW()-3</f>
-        <v>8</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="18" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
         <v>136</v>
       </c>
+      <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
+      <c r="H11" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="28"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="28">
-        <f>ROW()-3</f>
-        <v>9</v>
+      <c r="A12" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="28"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="28">
-        <f>ROW()-3</f>
-        <v>10</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
         <v>136</v>
       </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
+      <c r="H13" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="28"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="28">
-        <f>ROW()-3</f>
-        <v>11</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>136</v>
       </c>
+      <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="28"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="28">
-        <f>ROW()-3</f>
-        <v>12</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
+      <c r="G15" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="28"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="28">
-        <f>ROW()-3</f>
-        <v>13</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="18"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="28"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="28">
-        <f>ROW()-3</f>
-        <v>14</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="28"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="28">
-        <f>ROW()-3</f>
-        <v>15</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="18"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="28"/>
+      <c r="I18" s="28"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="28">
-        <f>ROW()-3</f>
-        <v>16</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="28">
-        <f>ROW()-3</f>
-        <v>17</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="27"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="28">
-        <f>ROW()-3</f>
-        <v>18</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="27"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="28">
-        <f>ROW()-3</f>
-        <v>19</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="27"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="28">
-        <f>ROW()-3</f>
-        <v>20</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="27"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C4:C9 C19:C23" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B4:B9 B19:B23" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C10:C11" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B10:B11" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C12:C13" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B12:B13" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C14" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B14" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C15:C16" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B15:B16" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17:C18" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B17:B18" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1601521033" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1602632290" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5274,16 +5108,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1601521033" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1601521033" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601521033" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1601521033" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1602632290" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1602632290" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602632290" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602632290" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1601521033" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602632290" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
